--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-025 - Pimpinan Wilayah Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-025 - Pimpinan Wilayah Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE298D3-A690-4B49-9141-B8C4C0946FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4875BD9-D5C4-4FA9-8FBC-B8945E68D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0194" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,7 +158,7 @@
 8. data report excel berhasil terdownload dan dapat dilihat</t>
   </si>
   <si>
-    <t>DGS-209</t>
+    <t>SCD0011-025</t>
   </si>
 </sst>
 </file>
@@ -212,35 +212,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,14 +546,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -649,33 +645,33 @@
       <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="240" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>18994</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -703,40 +699,40 @@
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="10" t="str">
+      <c r="U2" s="6" t="str">
         <f>"Pembuktian Sales yang ada pada User " &amp; F2</f>
         <v>Pembuktian Sales yang ada pada User 18994</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="I3" s="7"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="7"/>
       <c r="Q4" s="5"/>
@@ -744,13 +740,13 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
